--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4178359.961874334</v>
+        <v>4176169.778759452</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5904843.428690103</v>
+        <v>5904843.428690101</v>
       </c>
     </row>
     <row r="8">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7392110914377</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.891584982764</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.220846587375984</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>177.9364581348098</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,13 +950,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>190.6723464258231</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>86.88462298447439</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60.46179076613073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.004412707233</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I11" t="n">
-        <v>48.44094610573117</v>
+        <v>48.4409461057312</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H12" t="n">
-        <v>90.51690184321092</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I12" t="n">
-        <v>11.97131142212739</v>
+        <v>11.97131142212741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15.74450807232797</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.52313384837923</v>
+        <v>92.52313384837926</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T13" t="n">
         <v>219.8901868729779</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>210.4151434190922</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.0997690055786</v>
       </c>
       <c r="H14" t="n">
-        <v>296.4311508672723</v>
+        <v>296.4311508672721</v>
       </c>
       <c r="I14" t="n">
-        <v>48.44094610573117</v>
+        <v>48.4409461057312</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H15" t="n">
-        <v>90.51690184321092</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I15" t="n">
-        <v>11.97131142212739</v>
+        <v>11.97131142212741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>95.6824828373974</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T16" t="n">
         <v>219.8901868729779</v>
       </c>
       <c r="U16" t="n">
-        <v>286.216194430253</v>
+        <v>95.64170777059113</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I17" t="n">
-        <v>48.44094610573117</v>
+        <v>48.44094610573043</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H18" t="n">
-        <v>90.51690184321092</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I18" t="n">
-        <v>11.97131142212739</v>
+        <v>11.97131142212741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.35362391537704</v>
+        <v>112.2478160261584</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.52313384837926</v>
       </c>
       <c r="S19" t="n">
         <v>191.1608391039575</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>63.02936084015606</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>92.52313384837926</v>
       </c>
       <c r="S22" t="n">
-        <v>95.68248283739709</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T22" t="n">
         <v>219.8901868729779</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.35362391537663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.52313384837926</v>
       </c>
       <c r="S25" t="n">
         <v>191.1608391039575</v>
       </c>
       <c r="T25" t="n">
-        <v>219.8901868729779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.216194430253</v>
+        <v>227.9522524604882</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>129.4312114790384</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>219.8901868729779</v>
       </c>
       <c r="U28" t="n">
-        <v>98.21470431531246</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055778</v>
       </c>
       <c r="H29" t="n">
         <v>296.4311508672723</v>
@@ -2849,7 +2849,7 @@
         <v>251.009415427072</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.75415226141958</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.52313384837926</v>
       </c>
       <c r="S31" t="n">
-        <v>95.68248283739695</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T31" t="n">
         <v>219.8901868729779</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>110.2595558664246</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.7662539809674</v>
+        <v>142.7662539809673</v>
       </c>
       <c r="C34" t="n">
         <v>130.1810948976579</v>
@@ -3193,19 +3193,19 @@
         <v>111.5497468172424</v>
       </c>
       <c r="E34" t="n">
-        <v>109.3682364455993</v>
+        <v>65.44420379899432</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>23.42748746940531</v>
+        <v>129.0399461764603</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.68842606044966</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.45740764740934</v>
+        <v>55.45740764740933</v>
       </c>
       <c r="S34" t="n">
         <v>154.0951129029876</v>
@@ -3241,7 +3241,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U34" t="n">
-        <v>249.1504682292831</v>
+        <v>249.150468229283</v>
       </c>
       <c r="V34" t="n">
         <v>215.0719171228581</v>
@@ -3253,7 +3253,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.5189271511249</v>
+        <v>181.5189271511248</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055778</v>
       </c>
       <c r="H35" t="n">
         <v>296.4311508672723</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.7662539809674</v>
+        <v>142.7662539809673</v>
       </c>
       <c r="C37" t="n">
-        <v>24.56863619060292</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>111.5497468172424</v>
       </c>
       <c r="E37" t="n">
-        <v>109.3682364455993</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G37" t="n">
-        <v>129.0399461764603</v>
+        <v>46.22214366101215</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I37" t="n">
-        <v>61.68842606044966</v>
+        <v>61.68842606044964</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.45740764740935</v>
+        <v>55.45740764740933</v>
       </c>
       <c r="S37" t="n">
         <v>154.0951129029876</v>
@@ -3478,7 +3478,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U37" t="n">
-        <v>249.1504682292831</v>
+        <v>249.150468229283</v>
       </c>
       <c r="V37" t="n">
         <v>215.0719171228581</v>
@@ -3490,7 +3490,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y37" t="n">
-        <v>181.5189271511249</v>
+        <v>181.5189271511248</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.0997690055786</v>
       </c>
       <c r="H38" t="n">
-        <v>296.4311508672715</v>
+        <v>296.4311508672723</v>
       </c>
       <c r="I38" t="n">
         <v>48.4409461057312</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>142.7662539809673</v>
       </c>
       <c r="C40" t="n">
-        <v>130.1810948976579</v>
+        <v>28.73194430179454</v>
       </c>
       <c r="D40" t="n">
-        <v>111.5497468172424</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>109.3682364455993</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>108.3553218219613</v>
@@ -3676,10 +3676,10 @@
         <v>129.0399461764603</v>
       </c>
       <c r="H40" t="n">
-        <v>45.94430715980993</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.68842606044964</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>55.45740764740933</v>
       </c>
       <c r="S40" t="n">
         <v>154.0951129029876</v>
@@ -3715,7 +3715,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U40" t="n">
-        <v>249.1504682292831</v>
+        <v>249.150468229283</v>
       </c>
       <c r="V40" t="n">
         <v>215.0719171228581</v>
@@ -3727,7 +3727,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.5189271511249</v>
+        <v>181.5189271511248</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055778</v>
       </c>
       <c r="H41" t="n">
         <v>296.4311508672723</v>
@@ -3794,7 +3794,7 @@
         <v>204.6973549135481</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0094154270712</v>
+        <v>251.009415427072</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.7662539809674</v>
+        <v>142.7662539809673</v>
       </c>
       <c r="C43" t="n">
         <v>130.1810948976579</v>
       </c>
       <c r="D43" t="n">
-        <v>111.5497468172424</v>
+        <v>5.937288110187765</v>
       </c>
       <c r="E43" t="n">
-        <v>109.3682364455993</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F43" t="n">
-        <v>108.3553218219613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>129.0399461764603</v>
       </c>
       <c r="H43" t="n">
-        <v>96.87111376071613</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.68842606044964</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.45740764740935</v>
+        <v>55.45740764740933</v>
       </c>
       <c r="S43" t="n">
         <v>154.0951129029876</v>
@@ -3952,7 +3952,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>249.150468229283</v>
       </c>
       <c r="V43" t="n">
         <v>215.0719171228581</v>
@@ -3964,7 +3964,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.5189271511249</v>
+        <v>181.5189271511248</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.7662539809674</v>
+        <v>57.83841962841154</v>
       </c>
       <c r="C46" t="n">
         <v>130.1810948976579</v>
@@ -4141,19 +4141,19 @@
         <v>111.5497468172424</v>
       </c>
       <c r="E46" t="n">
-        <v>109.3682364455993</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G46" t="n">
-        <v>129.0399461764603</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.68842606044964</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.53337500080377</v>
+        <v>55.45740764740933</v>
       </c>
       <c r="S46" t="n">
         <v>154.0951129029876</v>
@@ -4189,7 +4189,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U46" t="n">
-        <v>249.1504682292831</v>
+        <v>249.150468229283</v>
       </c>
       <c r="V46" t="n">
         <v>215.0719171228581</v>
@@ -4201,7 +4201,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.5189271511249</v>
+        <v>181.5189271511248</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.8716139843721</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>799.8716139843721</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>799.8716139843721</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>799.8716139843721</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>792.9261132351686</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2054.709917111894</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1701.94126184178</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1328.4755035807</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.4755035807</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>640.3667387675712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631121</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563616</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8844025563616</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071581</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>115.015497745749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>115.015497745749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,43 +4890,43 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>182.2302673832261</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533564</v>
       </c>
       <c r="C11" t="n">
         <v>2014.491586593152</v>
@@ -5033,31 +5033,31 @@
         <v>444.1994386737233</v>
       </c>
       <c r="H11" t="n">
-        <v>144.7740337572868</v>
+        <v>144.7740337572866</v>
       </c>
       <c r="I11" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J11" t="n">
-        <v>437.168470257159</v>
+        <v>281.1405833770829</v>
       </c>
       <c r="K11" t="n">
-        <v>1069.470498160097</v>
+        <v>592.5386528345673</v>
       </c>
       <c r="L11" t="n">
-        <v>1492.689100880919</v>
+        <v>1015.75725555539</v>
       </c>
       <c r="M11" t="n">
-        <v>1995.270779346535</v>
+        <v>1963.35733217891</v>
       </c>
       <c r="N11" t="n">
-        <v>2701.466730428459</v>
+        <v>2911.658571181764</v>
       </c>
       <c r="O11" t="n">
-        <v>3551.733061930989</v>
+        <v>3761.924902684295</v>
       </c>
       <c r="P11" t="n">
-        <v>4239.741321354045</v>
+        <v>4449.933162107351</v>
       </c>
       <c r="Q11" t="n">
         <v>4679.185111611645</v>
@@ -5084,7 +5084,7 @@
         <v>3160.193275573497</v>
       </c>
       <c r="Y11" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597686</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.9860088266934</v>
+        <v>964.9860088266936</v>
       </c>
       <c r="C12" t="n">
-        <v>790.5329795455664</v>
+        <v>790.5329795455666</v>
       </c>
       <c r="D12" t="n">
-        <v>641.5985698843151</v>
+        <v>641.5985698843153</v>
       </c>
       <c r="E12" t="n">
-        <v>482.3611148788597</v>
+        <v>482.3611148788598</v>
       </c>
       <c r="F12" t="n">
         <v>335.8265569057447</v>
       </c>
       <c r="G12" t="n">
-        <v>199.3672329084049</v>
+        <v>199.367232908405</v>
       </c>
       <c r="H12" t="n">
         <v>107.9360189253636</v>
@@ -5118,28 +5118,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J12" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K12" t="n">
-        <v>528.4764171923171</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L12" t="n">
-        <v>874.6975343291356</v>
+        <v>852.4712753138315</v>
       </c>
       <c r="M12" t="n">
-        <v>1298.078116004968</v>
+        <v>1275.851856989664</v>
       </c>
       <c r="N12" t="n">
-        <v>1747.072966785267</v>
+        <v>1724.846707769963</v>
       </c>
       <c r="O12" t="n">
-        <v>2152.439025896463</v>
+        <v>2113.369482771087</v>
       </c>
       <c r="P12" t="n">
-        <v>2444.929739364485</v>
+        <v>2405.860196239109</v>
       </c>
       <c r="Q12" t="n">
-        <v>2590.532838984828</v>
+        <v>2551.463295859453</v>
       </c>
       <c r="R12" t="n">
         <v>2590.532838984828</v>
@@ -5148,7 +5148,7 @@
         <v>2459.307637040275</v>
       </c>
       <c r="T12" t="n">
-        <v>2266.276787157905</v>
+        <v>2266.276787157906</v>
       </c>
       <c r="U12" t="n">
         <v>2038.202609777192</v>
@@ -5163,7 +5163,7 @@
         <v>1340.961644611715</v>
       </c>
       <c r="Y12" t="n">
-        <v>1133.201345846761</v>
+        <v>1133.201345846762</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280.6835116009474</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="C13" t="n">
-        <v>111.7473286730406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="D13" t="n">
-        <v>111.7473286730406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="E13" t="n">
-        <v>111.7473286730406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="F13" t="n">
         <v>95.84378516563895</v>
@@ -5197,19 +5197,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J13" t="n">
-        <v>135.3764883732603</v>
+        <v>135.3764883732602</v>
       </c>
       <c r="K13" t="n">
-        <v>330.1777004235336</v>
+        <v>330.1777004235332</v>
       </c>
       <c r="L13" t="n">
-        <v>634.9826187409064</v>
+        <v>634.982618740906</v>
       </c>
       <c r="M13" t="n">
-        <v>966.7457913979974</v>
+        <v>966.7457913979969</v>
       </c>
       <c r="N13" t="n">
-        <v>1296.054993758308</v>
+        <v>1296.054993758307</v>
       </c>
       <c r="O13" t="n">
         <v>1584.209046862486</v>
@@ -5218,31 +5218,31 @@
         <v>1807.253937215158</v>
       </c>
       <c r="Q13" t="n">
-        <v>1878.243577816262</v>
+        <v>1878.243577816261</v>
       </c>
       <c r="R13" t="n">
-        <v>1784.785866858303</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S13" t="n">
-        <v>1784.785866858303</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.674566986608</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="U13" t="n">
-        <v>1273.567299885342</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V13" t="n">
-        <v>1018.882811679455</v>
+        <v>825.7910550087907</v>
       </c>
       <c r="W13" t="n">
-        <v>729.4656416424949</v>
+        <v>536.3738849718302</v>
       </c>
       <c r="X13" t="n">
-        <v>501.4760907444776</v>
+        <v>308.3843340738129</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.6835116009474</v>
+        <v>95.84378516563895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533564</v>
       </c>
       <c r="C14" t="n">
-        <v>2014.491586593152</v>
+        <v>2014.491586593153</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986403</v>
       </c>
       <c r="E14" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F14" t="n">
-        <v>859.4517305985501</v>
+        <v>859.4517305985505</v>
       </c>
       <c r="G14" t="n">
-        <v>444.1994386737233</v>
+        <v>444.1994386737231</v>
       </c>
       <c r="H14" t="n">
         <v>144.7740337572866</v>
@@ -5276,25 +5276,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J14" t="n">
-        <v>437.168470257159</v>
+        <v>437.1684702571589</v>
       </c>
       <c r="K14" t="n">
-        <v>1069.470498160097</v>
+        <v>1069.470498160096</v>
       </c>
       <c r="L14" t="n">
         <v>1492.689100880919</v>
       </c>
       <c r="M14" t="n">
-        <v>1995.270779346535</v>
+        <v>2440.289177504439</v>
       </c>
       <c r="N14" t="n">
-        <v>2701.466730428459</v>
+        <v>3388.590416507293</v>
       </c>
       <c r="O14" t="n">
-        <v>3551.733061930989</v>
+        <v>3861.864568559706</v>
       </c>
       <c r="P14" t="n">
-        <v>4239.741321354045</v>
+        <v>4449.933162107351</v>
       </c>
       <c r="Q14" t="n">
         <v>4679.185111611645</v>
@@ -5303,25 +5303,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S14" t="n">
-        <v>4677.800445479192</v>
+        <v>4677.800445479193</v>
       </c>
       <c r="T14" t="n">
-        <v>4471.035440516011</v>
+        <v>4471.035440516012</v>
       </c>
       <c r="U14" t="n">
-        <v>4217.490576448262</v>
+        <v>4217.490576448263</v>
       </c>
       <c r="V14" t="n">
-        <v>3886.427689104691</v>
+        <v>3886.427689104692</v>
       </c>
       <c r="W14" t="n">
-        <v>3533.659033834577</v>
+        <v>3533.659033834578</v>
       </c>
       <c r="X14" t="n">
-        <v>3160.193275573497</v>
+        <v>3160.193275573498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597686</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.9860088266934</v>
+        <v>964.9860088266936</v>
       </c>
       <c r="C15" t="n">
-        <v>790.5329795455664</v>
+        <v>790.5329795455666</v>
       </c>
       <c r="D15" t="n">
-        <v>641.5985698843151</v>
+        <v>641.5985698843153</v>
       </c>
       <c r="E15" t="n">
-        <v>482.3611148788597</v>
+        <v>482.3611148788598</v>
       </c>
       <c r="F15" t="n">
         <v>335.8265569057447</v>
       </c>
       <c r="G15" t="n">
-        <v>199.3672329084049</v>
+        <v>199.367232908405</v>
       </c>
       <c r="H15" t="n">
         <v>107.9360189253636</v>
@@ -5355,25 +5355,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J15" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K15" t="n">
-        <v>528.4764171923171</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L15" t="n">
-        <v>874.6975343291356</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M15" t="n">
-        <v>1298.078116004968</v>
+        <v>1173.247991017963</v>
       </c>
       <c r="N15" t="n">
-        <v>1747.072966785267</v>
+        <v>1763.916250895339</v>
       </c>
       <c r="O15" t="n">
-        <v>2135.595741786391</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.086455254414</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q15" t="n">
         <v>2590.532838984828</v>
@@ -5385,7 +5385,7 @@
         <v>2459.307637040275</v>
       </c>
       <c r="T15" t="n">
-        <v>2266.276787157905</v>
+        <v>2266.276787157906</v>
       </c>
       <c r="U15" t="n">
         <v>2038.202609777192</v>
@@ -5400,7 +5400,7 @@
         <v>1340.961644611715</v>
       </c>
       <c r="Y15" t="n">
-        <v>1133.201345846761</v>
+        <v>1133.201345846762</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.84378516563895</v>
+        <v>412.693061675939</v>
       </c>
       <c r="C16" t="n">
-        <v>95.84378516563895</v>
+        <v>243.7568787480321</v>
       </c>
       <c r="D16" t="n">
-        <v>95.84378516563895</v>
+        <v>243.7568787480321</v>
       </c>
       <c r="E16" t="n">
         <v>95.84378516563895</v>
@@ -5434,16 +5434,16 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J16" t="n">
-        <v>135.3764883732603</v>
+        <v>135.3764883732602</v>
       </c>
       <c r="K16" t="n">
-        <v>330.1777004235336</v>
+        <v>330.1777004235335</v>
       </c>
       <c r="L16" t="n">
-        <v>634.9826187409064</v>
+        <v>634.9826187409062</v>
       </c>
       <c r="M16" t="n">
-        <v>966.7457913979974</v>
+        <v>966.7457913979971</v>
       </c>
       <c r="N16" t="n">
         <v>1296.054993758307</v>
@@ -5455,31 +5455,31 @@
         <v>1807.253937215158</v>
       </c>
       <c r="Q16" t="n">
-        <v>1878.243577816262</v>
+        <v>1878.243577816261</v>
       </c>
       <c r="R16" t="n">
-        <v>1878.243577816262</v>
+        <v>1878.243577816261</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.594605253234</v>
+        <v>1685.151821145597</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.48330538154</v>
+        <v>1463.040521273903</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.376038280274</v>
+        <v>1366.432735647044</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.691550074387</v>
+        <v>1111.748247441157</v>
       </c>
       <c r="W16" t="n">
-        <v>726.2743800374261</v>
+        <v>822.331077404196</v>
       </c>
       <c r="X16" t="n">
-        <v>498.2848291394088</v>
+        <v>594.3415265061786</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.4922499958786</v>
+        <v>594.3415265061788</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2383.454103533565</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C17" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D17" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E17" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F17" t="n">
-        <v>859.4517305985501</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G17" t="n">
-        <v>444.1994386737233</v>
+        <v>444.1994386737225</v>
       </c>
       <c r="H17" t="n">
-        <v>144.7740337572866</v>
+        <v>144.7740337572858</v>
       </c>
       <c r="I17" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J17" t="n">
-        <v>437.168470257159</v>
+        <v>437.1684702571589</v>
       </c>
       <c r="K17" t="n">
-        <v>1069.470498160097</v>
+        <v>748.5665397146433</v>
       </c>
       <c r="L17" t="n">
-        <v>1615.531049420066</v>
+        <v>1457.80869067976</v>
       </c>
       <c r="M17" t="n">
-        <v>2563.131126043586</v>
+        <v>2405.40876730328</v>
       </c>
       <c r="N17" t="n">
-        <v>3078.458909878576</v>
+        <v>3353.710006306134</v>
       </c>
       <c r="O17" t="n">
-        <v>3551.733061930989</v>
+        <v>3826.984158358547</v>
       </c>
       <c r="P17" t="n">
-        <v>4239.741321354045</v>
+        <v>4514.992417781603</v>
       </c>
       <c r="Q17" t="n">
-        <v>4679.185111611645</v>
+        <v>4744.244367285897</v>
       </c>
       <c r="R17" t="n">
         <v>4792.189258281947</v>
@@ -5546,19 +5546,19 @@
         <v>4471.035440516011</v>
       </c>
       <c r="U17" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V17" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W17" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X17" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y17" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.9860088266934</v>
+        <v>964.9860088266936</v>
       </c>
       <c r="C18" t="n">
-        <v>790.5329795455664</v>
+        <v>790.5329795455666</v>
       </c>
       <c r="D18" t="n">
-        <v>641.5985698843151</v>
+        <v>641.5985698843153</v>
       </c>
       <c r="E18" t="n">
-        <v>482.3611148788597</v>
+        <v>482.3611148788598</v>
       </c>
       <c r="F18" t="n">
         <v>335.8265569057447</v>
       </c>
       <c r="G18" t="n">
-        <v>199.3672329084049</v>
+        <v>199.367232908405</v>
       </c>
       <c r="H18" t="n">
         <v>107.9360189253636</v>
@@ -5595,10 +5595,10 @@
         <v>305.4410496149625</v>
       </c>
       <c r="K18" t="n">
-        <v>528.4764171923171</v>
+        <v>528.4764171923169</v>
       </c>
       <c r="L18" t="n">
-        <v>874.6975343291356</v>
+        <v>874.6975343291354</v>
       </c>
       <c r="M18" t="n">
         <v>1298.078116004968</v>
@@ -5610,7 +5610,7 @@
         <v>2135.595741786391</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.929739364485</v>
+        <v>2428.086455254413</v>
       </c>
       <c r="Q18" t="n">
         <v>2590.532838984828</v>
@@ -5622,7 +5622,7 @@
         <v>2459.307637040275</v>
       </c>
       <c r="T18" t="n">
-        <v>2266.276787157905</v>
+        <v>2266.276787157906</v>
       </c>
       <c r="U18" t="n">
         <v>2038.202609777192</v>
@@ -5637,7 +5637,7 @@
         <v>1340.961644611715</v>
       </c>
       <c r="Y18" t="n">
-        <v>1133.201345846761</v>
+        <v>1133.201345846762</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="C19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="D19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="E19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="F19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="G19" t="n">
         <v>95.84378516563895</v>
@@ -5671,13 +5671,13 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J19" t="n">
-        <v>135.3764883732603</v>
+        <v>135.3764883732602</v>
       </c>
       <c r="K19" t="n">
         <v>330.1777004235335</v>
       </c>
       <c r="L19" t="n">
-        <v>634.9826187409064</v>
+        <v>634.9826187409062</v>
       </c>
       <c r="M19" t="n">
         <v>966.7457913979972</v>
@@ -5695,28 +5695,28 @@
         <v>1878.243577816262</v>
       </c>
       <c r="R19" t="n">
-        <v>1878.243577816262</v>
+        <v>1784.785866858303</v>
       </c>
       <c r="S19" t="n">
-        <v>1685.151821145598</v>
+        <v>1591.694110187639</v>
       </c>
       <c r="T19" t="n">
-        <v>1463.040521273903</v>
+        <v>1369.582810315944</v>
       </c>
       <c r="U19" t="n">
-        <v>1173.933254172637</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V19" t="n">
-        <v>919.2487659667503</v>
+        <v>825.7910550087912</v>
       </c>
       <c r="W19" t="n">
-        <v>629.8315959297895</v>
+        <v>825.7910550087912</v>
       </c>
       <c r="X19" t="n">
-        <v>401.8420450317722</v>
+        <v>597.8015041107739</v>
       </c>
       <c r="Y19" t="n">
-        <v>181.049465888242</v>
+        <v>377.0089249672437</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>2014.491586593152</v>
       </c>
       <c r="D20" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E20" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F20" t="n">
-        <v>859.4517305985501</v>
+        <v>859.4517305985502</v>
       </c>
       <c r="G20" t="n">
         <v>444.1994386737233</v>
@@ -5750,22 +5750,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J20" t="n">
-        <v>437.1684702571589</v>
+        <v>269.7628212368058</v>
       </c>
       <c r="K20" t="n">
-        <v>1069.470498160096</v>
+        <v>902.0648491397434</v>
       </c>
       <c r="L20" t="n">
-        <v>1683.557268127852</v>
+        <v>1325.283451860566</v>
       </c>
       <c r="M20" t="n">
-        <v>2186.138946593468</v>
+        <v>2071.746212515372</v>
       </c>
       <c r="N20" t="n">
-        <v>2701.466730428459</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O20" t="n">
-        <v>3551.733061930989</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P20" t="n">
         <v>4239.741321354045</v>
@@ -5832,7 +5832,7 @@
         <v>180.6109246279578</v>
       </c>
       <c r="K21" t="n">
-        <v>545.3197013023887</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L21" t="n">
         <v>891.5408184392072</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.84378516563893</v>
+        <v>644.1425901785512</v>
       </c>
       <c r="C22" t="n">
-        <v>95.84378516563891</v>
+        <v>475.2064072506444</v>
       </c>
       <c r="D22" t="n">
-        <v>95.84378516563891</v>
+        <v>475.2064072506444</v>
       </c>
       <c r="E22" t="n">
-        <v>95.84378516563895</v>
+        <v>327.2933136682512</v>
       </c>
       <c r="F22" t="n">
-        <v>95.84378516563895</v>
+        <v>327.2933136682512</v>
       </c>
       <c r="G22" t="n">
-        <v>95.84378516563895</v>
+        <v>159.5098062163016</v>
       </c>
       <c r="H22" t="n">
         <v>95.84378516563895</v>
@@ -5911,7 +5911,7 @@
         <v>135.3764883732602</v>
       </c>
       <c r="K22" t="n">
-        <v>330.1777004235334</v>
+        <v>330.1777004235335</v>
       </c>
       <c r="L22" t="n">
         <v>634.9826187409062</v>
@@ -5929,31 +5929,31 @@
         <v>1807.253937215158</v>
       </c>
       <c r="Q22" t="n">
-        <v>1878.243577816262</v>
+        <v>1878.243577816261</v>
       </c>
       <c r="R22" t="n">
-        <v>1878.243577816262</v>
+        <v>1784.785866858303</v>
       </c>
       <c r="S22" t="n">
-        <v>1781.594605253234</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.48330538154</v>
+        <v>1369.582810315944</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.376038280274</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.691550074387</v>
+        <v>825.791055008791</v>
       </c>
       <c r="W22" t="n">
-        <v>726.274380037426</v>
+        <v>825.791055008791</v>
       </c>
       <c r="X22" t="n">
-        <v>498.2848291394087</v>
+        <v>825.791055008791</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.4922499958786</v>
+        <v>825.791055008791</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C23" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D23" t="n">
-        <v>1656.225887986403</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E23" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F23" t="n">
-        <v>859.4517305985505</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G23" t="n">
         <v>444.1994386737233</v>
@@ -5990,49 +5990,49 @@
         <v>269.7628212368058</v>
       </c>
       <c r="K23" t="n">
-        <v>581.1608906942902</v>
+        <v>902.0648491397434</v>
       </c>
       <c r="L23" t="n">
-        <v>1399.39723231941</v>
+        <v>1325.283451860566</v>
       </c>
       <c r="M23" t="n">
-        <v>2346.99730894293</v>
+        <v>1827.865130326182</v>
       </c>
       <c r="N23" t="n">
-        <v>3295.298547945785</v>
+        <v>2776.166369329036</v>
       </c>
       <c r="O23" t="n">
-        <v>4145.564879448315</v>
+        <v>3626.432700831567</v>
       </c>
       <c r="P23" t="n">
-        <v>4514.992417781603</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q23" t="n">
-        <v>4744.244367285897</v>
+        <v>4679.185111611645</v>
       </c>
       <c r="R23" t="n">
         <v>4792.189258281947</v>
       </c>
       <c r="S23" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T23" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U23" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V23" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W23" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X23" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y23" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J24" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K24" t="n">
-        <v>545.3197013023887</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L24" t="n">
-        <v>891.5408184392072</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M24" t="n">
-        <v>1314.921400115039</v>
+        <v>1173.247991017963</v>
       </c>
       <c r="N24" t="n">
-        <v>1763.916250895339</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O24" t="n">
-        <v>2152.439025896463</v>
+        <v>2010.765616799386</v>
       </c>
       <c r="P24" t="n">
         <v>2444.929739364485</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.84378516563895</v>
+        <v>414.8966075058816</v>
       </c>
       <c r="C25" t="n">
-        <v>95.84378516563895</v>
+        <v>245.9604245779747</v>
       </c>
       <c r="D25" t="n">
         <v>95.84378516563895</v>
@@ -6145,19 +6145,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J25" t="n">
-        <v>135.3764883732601</v>
+        <v>135.3764883732602</v>
       </c>
       <c r="K25" t="n">
-        <v>330.1777004235333</v>
+        <v>330.1777004235335</v>
       </c>
       <c r="L25" t="n">
-        <v>634.9826187409061</v>
+        <v>634.9826187409064</v>
       </c>
       <c r="M25" t="n">
-        <v>966.745791397997</v>
+        <v>966.7457913979974</v>
       </c>
       <c r="N25" t="n">
-        <v>1296.054993758307</v>
+        <v>1296.054993758308</v>
       </c>
       <c r="O25" t="n">
         <v>1584.209046862486</v>
@@ -6166,31 +6166,31 @@
         <v>1807.253937215158</v>
       </c>
       <c r="Q25" t="n">
-        <v>1878.243577816261</v>
+        <v>1878.243577816262</v>
       </c>
       <c r="R25" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858303</v>
       </c>
       <c r="S25" t="n">
-        <v>1685.151821145597</v>
+        <v>1591.694110187639</v>
       </c>
       <c r="T25" t="n">
-        <v>1463.040521273902</v>
+        <v>1591.694110187639</v>
       </c>
       <c r="U25" t="n">
-        <v>1173.933254172637</v>
+        <v>1361.439309722499</v>
       </c>
       <c r="V25" t="n">
-        <v>919.2487659667497</v>
+        <v>1106.754821516612</v>
       </c>
       <c r="W25" t="n">
-        <v>629.831595929789</v>
+        <v>817.3376514796514</v>
       </c>
       <c r="X25" t="n">
-        <v>401.8420450317718</v>
+        <v>817.3376514796514</v>
       </c>
       <c r="Y25" t="n">
-        <v>181.0494658882416</v>
+        <v>596.5450723361213</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>2014.491586593152</v>
       </c>
       <c r="D26" t="n">
-        <v>1656.225887986401</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E26" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F26" t="n">
-        <v>859.4517305985502</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G26" t="n">
         <v>444.1994386737233</v>
@@ -6224,28 +6224,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J26" t="n">
-        <v>269.7628212368058</v>
+        <v>437.1684702571589</v>
       </c>
       <c r="K26" t="n">
-        <v>581.1608906942902</v>
+        <v>748.5665397146433</v>
       </c>
       <c r="L26" t="n">
-        <v>1399.39723231941</v>
+        <v>1171.785142435466</v>
       </c>
       <c r="M26" t="n">
-        <v>2346.99730894293</v>
+        <v>2119.385219058986</v>
       </c>
       <c r="N26" t="n">
-        <v>3295.298547945785</v>
+        <v>2701.466730428459</v>
       </c>
       <c r="O26" t="n">
-        <v>4145.564879448315</v>
+        <v>3551.733061930989</v>
       </c>
       <c r="P26" t="n">
-        <v>4514.992417781603</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q26" t="n">
-        <v>4744.244367285897</v>
+        <v>4679.185111611645</v>
       </c>
       <c r="R26" t="n">
         <v>4792.189258281947</v>
@@ -6303,25 +6303,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J27" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K27" t="n">
-        <v>528.4764171923169</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L27" t="n">
-        <v>874.6975343291354</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M27" t="n">
-        <v>1298.078116004968</v>
+        <v>1173.247991017963</v>
       </c>
       <c r="N27" t="n">
-        <v>1747.072966785267</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.595741786391</v>
+        <v>2010.765616799386</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.086455254413</v>
+        <v>2303.256330267408</v>
       </c>
       <c r="Q27" t="n">
         <v>2590.532838984828</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.84378516563902</v>
+        <v>376.6990220315489</v>
       </c>
       <c r="C28" t="n">
-        <v>95.84378516563902</v>
+        <v>376.6990220315489</v>
       </c>
       <c r="D28" t="n">
-        <v>95.84378516563902</v>
+        <v>226.5823826192131</v>
       </c>
       <c r="E28" t="n">
-        <v>95.84378516563902</v>
+        <v>226.5823826192131</v>
       </c>
       <c r="F28" t="n">
-        <v>95.84378516563895</v>
+        <v>226.5823826192131</v>
       </c>
       <c r="G28" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563896</v>
       </c>
       <c r="H28" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563896</v>
       </c>
       <c r="I28" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563896</v>
       </c>
       <c r="J28" t="n">
-        <v>135.3764883732602</v>
+        <v>135.3764883732603</v>
       </c>
       <c r="K28" t="n">
         <v>330.1777004235335</v>
       </c>
       <c r="L28" t="n">
-        <v>634.9826187409062</v>
+        <v>634.9826187409064</v>
       </c>
       <c r="M28" t="n">
-        <v>966.7457913979972</v>
+        <v>966.7457913979974</v>
       </c>
       <c r="N28" t="n">
-        <v>1296.054993758307</v>
+        <v>1296.054993758308</v>
       </c>
       <c r="O28" t="n">
         <v>1584.209046862486</v>
@@ -6412,22 +6412,22 @@
         <v>1591.694110187639</v>
       </c>
       <c r="T28" t="n">
-        <v>1369.582810315943</v>
+        <v>1369.582810315944</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.376038280274</v>
+        <v>1369.582810315944</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.691550074387</v>
+        <v>1114.898322110057</v>
       </c>
       <c r="W28" t="n">
-        <v>726.2743800374262</v>
+        <v>825.4811520730964</v>
       </c>
       <c r="X28" t="n">
-        <v>498.2848291394088</v>
+        <v>597.491601175079</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.4922499958788</v>
+        <v>376.6990220315489</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C29" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D29" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E29" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F29" t="n">
-        <v>859.4517305985502</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G29" t="n">
         <v>444.1994386737233</v>
@@ -6461,25 +6461,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J29" t="n">
-        <v>424.7438758524521</v>
+        <v>437.1684702571589</v>
       </c>
       <c r="K29" t="n">
-        <v>1057.04590375539</v>
+        <v>748.5665397146433</v>
       </c>
       <c r="L29" t="n">
-        <v>1893.749108881158</v>
+        <v>1171.785142435466</v>
       </c>
       <c r="M29" t="n">
-        <v>2396.330787346774</v>
+        <v>2119.385219058986</v>
       </c>
       <c r="N29" t="n">
-        <v>2911.658571181764</v>
+        <v>3067.68645806184</v>
       </c>
       <c r="O29" t="n">
-        <v>3761.924902684295</v>
+        <v>3551.733061930989</v>
       </c>
       <c r="P29" t="n">
-        <v>4449.933162107351</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q29" t="n">
         <v>4679.185111611645</v>
@@ -6497,16 +6497,16 @@
         <v>4217.490576448262</v>
       </c>
       <c r="V29" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W29" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X29" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y29" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J30" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K30" t="n">
-        <v>528.4764171923169</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L30" t="n">
-        <v>874.6975343291354</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M30" t="n">
-        <v>1298.078116004968</v>
+        <v>1173.247991017963</v>
       </c>
       <c r="N30" t="n">
-        <v>1747.072966785267</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.595741786391</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.086455254413</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q30" t="n">
         <v>2590.532838984828</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.84378516563896</v>
+        <v>493.6251871112967</v>
       </c>
       <c r="C31" t="n">
-        <v>95.84378516563895</v>
+        <v>493.6251871112967</v>
       </c>
       <c r="D31" t="n">
-        <v>95.84378516563895</v>
+        <v>343.5085476989609</v>
       </c>
       <c r="E31" t="n">
-        <v>95.84378516563895</v>
+        <v>195.5954541165678</v>
       </c>
       <c r="F31" t="n">
-        <v>95.84378516563895</v>
+        <v>195.5954541165678</v>
       </c>
       <c r="G31" t="n">
-        <v>95.84378516563895</v>
+        <v>195.5954541165678</v>
       </c>
       <c r="H31" t="n">
-        <v>95.84378516563895</v>
+        <v>195.5954541165678</v>
       </c>
       <c r="I31" t="n">
         <v>95.84378516563895</v>
@@ -6640,31 +6640,31 @@
         <v>1807.253937215158</v>
       </c>
       <c r="Q31" t="n">
-        <v>1878.243577816262</v>
+        <v>1878.243577816261</v>
       </c>
       <c r="R31" t="n">
-        <v>1878.243577816262</v>
+        <v>1784.785866858303</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.594605253234</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.48330538154</v>
+        <v>1369.582810315944</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.376038280274</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.691550074387</v>
+        <v>825.791055008791</v>
       </c>
       <c r="W31" t="n">
-        <v>726.2743800374261</v>
+        <v>714.4177662548268</v>
       </c>
       <c r="X31" t="n">
-        <v>498.2848291394088</v>
+        <v>714.4177662548268</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.4922499958786</v>
+        <v>493.6251871112967</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J32" t="n">
-        <v>437.1684702571589</v>
+        <v>269.7628212368058</v>
       </c>
       <c r="K32" t="n">
-        <v>1069.470498160096</v>
+        <v>581.1608906942902</v>
       </c>
       <c r="L32" t="n">
-        <v>1906.173703285865</v>
+        <v>1250.583812959988</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.719667683236</v>
+        <v>1753.165491425604</v>
       </c>
       <c r="N32" t="n">
-        <v>3020.047451518227</v>
+        <v>2701.466730428459</v>
       </c>
       <c r="O32" t="n">
-        <v>3870.313783020757</v>
+        <v>3551.733061930989</v>
       </c>
       <c r="P32" t="n">
         <v>4239.741321354045</v>
@@ -6777,25 +6777,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J33" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K33" t="n">
-        <v>528.4764171923169</v>
+        <v>545.3197013023887</v>
       </c>
       <c r="L33" t="n">
-        <v>874.6975343291354</v>
+        <v>891.5408184392072</v>
       </c>
       <c r="M33" t="n">
-        <v>1298.078116004968</v>
+        <v>1314.921400115039</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.072966785267</v>
+        <v>1763.916250895339</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.595741786391</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P33" t="n">
-        <v>2428.086455254413</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q33" t="n">
         <v>2590.532838984828</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.4649888932697</v>
+        <v>536.4649888932703</v>
       </c>
       <c r="C34" t="n">
-        <v>404.96893344109</v>
+        <v>404.9689334410906</v>
       </c>
       <c r="D34" t="n">
-        <v>292.2924215044816</v>
+        <v>292.2924215044821</v>
       </c>
       <c r="E34" t="n">
-        <v>181.8194553978157</v>
+        <v>226.1871651418615</v>
       </c>
       <c r="F34" t="n">
-        <v>181.8194553978157</v>
+        <v>226.1871651418615</v>
       </c>
       <c r="G34" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="I34" t="n">
         <v>95.84378516563895</v>
@@ -6862,28 +6862,28 @@
         <v>403.5678383014539</v>
       </c>
       <c r="L34" t="n">
-        <v>745.0678255577869</v>
+        <v>745.0678255577872</v>
       </c>
       <c r="M34" t="n">
         <v>1113.526067153838</v>
       </c>
       <c r="N34" t="n">
-        <v>1479.530338453108</v>
+        <v>1479.530338453109</v>
       </c>
       <c r="O34" t="n">
         <v>1804.379460496247</v>
       </c>
       <c r="P34" t="n">
-        <v>2064.119419787879</v>
+        <v>2064.11941978788</v>
       </c>
       <c r="Q34" t="n">
-        <v>2171.804129327943</v>
+        <v>2171.804129327944</v>
       </c>
       <c r="R34" t="n">
-        <v>2115.786545845711</v>
+        <v>2115.786545845712</v>
       </c>
       <c r="S34" t="n">
-        <v>1960.134916650774</v>
+        <v>1960.134916650775</v>
       </c>
       <c r="T34" t="n">
         <v>1775.463744254807</v>
@@ -6895,13 +6895,13 @@
         <v>1306.552243899109</v>
       </c>
       <c r="W34" t="n">
-        <v>1054.575201337875</v>
+        <v>1054.575201337876</v>
       </c>
       <c r="X34" t="n">
-        <v>864.0257779155852</v>
+        <v>864.0257779155856</v>
       </c>
       <c r="Y34" t="n">
-        <v>680.6733262477823</v>
+        <v>680.6733262477826</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>2014.491586593152</v>
       </c>
       <c r="D35" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E35" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F35" t="n">
-        <v>859.4517305985502</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G35" t="n">
         <v>444.1994386737233</v>
@@ -6935,19 +6935,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J35" t="n">
-        <v>269.7628212368058</v>
+        <v>437.1684702571589</v>
       </c>
       <c r="K35" t="n">
-        <v>581.1608906942902</v>
+        <v>1069.470498160096</v>
       </c>
       <c r="L35" t="n">
-        <v>1417.864095820059</v>
+        <v>1776.389411769528</v>
       </c>
       <c r="M35" t="n">
-        <v>2365.464172443579</v>
+        <v>2723.989488393048</v>
       </c>
       <c r="N35" t="n">
-        <v>3313.765411446433</v>
+        <v>3672.290727395903</v>
       </c>
       <c r="O35" t="n">
         <v>4145.564879448315</v>
@@ -7014,25 +7014,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J36" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K36" t="n">
-        <v>528.4764171923169</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L36" t="n">
-        <v>874.6975343291354</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M36" t="n">
-        <v>1298.078116004968</v>
+        <v>1314.921400115039</v>
       </c>
       <c r="N36" t="n">
-        <v>1747.072966785267</v>
+        <v>1763.916250895339</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.595741786391</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P36" t="n">
-        <v>2428.086455254413</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q36" t="n">
         <v>2590.532838984828</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>536.4649888932699</v>
+        <v>536.4649888932698</v>
       </c>
       <c r="C37" t="n">
-        <v>511.6481846603377</v>
+        <v>536.4649888932698</v>
       </c>
       <c r="D37" t="n">
-        <v>398.9716727237292</v>
+        <v>423.7884769566613</v>
       </c>
       <c r="E37" t="n">
-        <v>288.4987066170632</v>
+        <v>423.7884769566613</v>
       </c>
       <c r="F37" t="n">
-        <v>288.4987066170632</v>
+        <v>314.3386569344781</v>
       </c>
       <c r="G37" t="n">
-        <v>158.1553266408406</v>
+        <v>267.6496229334558</v>
       </c>
       <c r="H37" t="n">
         <v>158.1553266408406</v>
@@ -7093,13 +7093,13 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J37" t="n">
-        <v>172.0715573122204</v>
+        <v>172.0715573122205</v>
       </c>
       <c r="K37" t="n">
-        <v>403.5678383014537</v>
+        <v>403.567838301454</v>
       </c>
       <c r="L37" t="n">
-        <v>745.0678255577867</v>
+        <v>745.067825557787</v>
       </c>
       <c r="M37" t="n">
         <v>1113.526067153838</v>
@@ -7117,10 +7117,10 @@
         <v>2171.804129327943</v>
       </c>
       <c r="R37" t="n">
-        <v>2115.786545845711</v>
+        <v>2115.786545845712</v>
       </c>
       <c r="S37" t="n">
-        <v>1960.134916650774</v>
+        <v>1960.134916650775</v>
       </c>
       <c r="T37" t="n">
         <v>1775.463744254807</v>
@@ -7132,13 +7132,13 @@
         <v>1306.552243899109</v>
       </c>
       <c r="W37" t="n">
-        <v>1054.575201337876</v>
+        <v>1054.575201337875</v>
       </c>
       <c r="X37" t="n">
-        <v>864.0257779155854</v>
+        <v>864.0257779155852</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.6733262477825</v>
+        <v>680.6733262477824</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2014.491586593152</v>
       </c>
       <c r="D38" t="n">
-        <v>1656.225887986401</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E38" t="n">
-        <v>1270.437635388157</v>
+        <v>1270.437635388158</v>
       </c>
       <c r="F38" t="n">
-        <v>859.4517305985494</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G38" t="n">
-        <v>444.1994386737225</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H38" t="n">
         <v>144.7740337572866</v>
@@ -7172,28 +7172,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J38" t="n">
-        <v>437.1684702571589</v>
+        <v>269.7628212368058</v>
       </c>
       <c r="K38" t="n">
-        <v>1069.470498160096</v>
+        <v>902.0648491397434</v>
       </c>
       <c r="L38" t="n">
-        <v>1906.173703285865</v>
+        <v>1325.283451860566</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.75538175148</v>
+        <v>1827.865130326182</v>
       </c>
       <c r="N38" t="n">
-        <v>2924.083165586471</v>
+        <v>2776.166369329036</v>
       </c>
       <c r="O38" t="n">
-        <v>3551.733061930989</v>
+        <v>3626.432700831567</v>
       </c>
       <c r="P38" t="n">
-        <v>4239.741321354045</v>
+        <v>4314.440960254622</v>
       </c>
       <c r="Q38" t="n">
-        <v>4679.185111611645</v>
+        <v>4744.244367285897</v>
       </c>
       <c r="R38" t="n">
         <v>4792.189258281947</v>
@@ -7257,10 +7257,10 @@
         <v>403.6462922053122</v>
       </c>
       <c r="L39" t="n">
-        <v>891.5408184392072</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M39" t="n">
-        <v>1314.921400115039</v>
+        <v>1173.247991017963</v>
       </c>
       <c r="N39" t="n">
         <v>1763.916250895339</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>736.6909097300135</v>
+        <v>536.4649888932701</v>
       </c>
       <c r="C40" t="n">
-        <v>605.1948542778338</v>
+        <v>507.4428229318615</v>
       </c>
       <c r="D40" t="n">
-        <v>492.5183423412252</v>
+        <v>507.4428229318615</v>
       </c>
       <c r="E40" t="n">
-        <v>382.0453762345593</v>
+        <v>507.4428229318615</v>
       </c>
       <c r="F40" t="n">
-        <v>272.5955562123761</v>
+        <v>397.9930029096784</v>
       </c>
       <c r="G40" t="n">
-        <v>142.252176236154</v>
+        <v>267.6496229334558</v>
       </c>
       <c r="H40" t="n">
-        <v>95.84378516563895</v>
+        <v>158.1553266408406</v>
       </c>
       <c r="I40" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J40" t="n">
-        <v>172.0715573122204</v>
+        <v>172.0715573122206</v>
       </c>
       <c r="K40" t="n">
-        <v>403.5678383014537</v>
+        <v>403.5678383014541</v>
       </c>
       <c r="L40" t="n">
-        <v>745.0678255577867</v>
+        <v>745.0678255577872</v>
       </c>
       <c r="M40" t="n">
         <v>1113.526067153838</v>
@@ -7354,28 +7354,28 @@
         <v>2171.804129327943</v>
       </c>
       <c r="R40" t="n">
-        <v>2171.804129327943</v>
+        <v>2115.786545845712</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.152500133006</v>
+        <v>1960.134916650775</v>
       </c>
       <c r="T40" t="n">
-        <v>1831.481327737038</v>
+        <v>1775.463744254807</v>
       </c>
       <c r="U40" t="n">
-        <v>1579.8141881115</v>
+        <v>1523.796604629269</v>
       </c>
       <c r="V40" t="n">
-        <v>1362.56982738134</v>
+        <v>1306.552243899109</v>
       </c>
       <c r="W40" t="n">
-        <v>1110.592784820107</v>
+        <v>1054.575201337876</v>
       </c>
       <c r="X40" t="n">
-        <v>920.0433613978164</v>
+        <v>864.0257779155854</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.6909097300135</v>
+        <v>680.6733262477826</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C41" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D41" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E41" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F41" t="n">
-        <v>859.4517305985502</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G41" t="n">
         <v>444.1994386737233</v>
@@ -7418,19 +7418,19 @@
         <v>1325.283451860566</v>
       </c>
       <c r="M41" t="n">
-        <v>1827.865130326182</v>
+        <v>2251.19820226772</v>
       </c>
       <c r="N41" t="n">
-        <v>2701.466730428459</v>
+        <v>2766.525986102711</v>
       </c>
       <c r="O41" t="n">
-        <v>3551.733061930989</v>
+        <v>3616.792317605241</v>
       </c>
       <c r="P41" t="n">
-        <v>4239.741321354045</v>
+        <v>4304.800577028297</v>
       </c>
       <c r="Q41" t="n">
-        <v>4679.185111611645</v>
+        <v>4744.244367285897</v>
       </c>
       <c r="R41" t="n">
         <v>4792.189258281947</v>
@@ -7442,19 +7442,19 @@
         <v>4471.035440516011</v>
       </c>
       <c r="U41" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V41" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W41" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X41" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y41" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="42">
@@ -7491,7 +7491,7 @@
         <v>180.6109246279578</v>
       </c>
       <c r="K42" t="n">
-        <v>403.6462922053122</v>
+        <v>545.3197013023887</v>
       </c>
       <c r="L42" t="n">
         <v>891.5408184392072</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.1321285188078</v>
+        <v>536.4649888932699</v>
       </c>
       <c r="C43" t="n">
-        <v>656.6360730666281</v>
+        <v>404.9689334410903</v>
       </c>
       <c r="D43" t="n">
-        <v>543.9595611300196</v>
+        <v>398.9716727237292</v>
       </c>
       <c r="E43" t="n">
-        <v>433.4865950233536</v>
+        <v>288.4987066170631</v>
       </c>
       <c r="F43" t="n">
-        <v>324.0367750011704</v>
+        <v>288.4987066170631</v>
       </c>
       <c r="G43" t="n">
-        <v>193.6933950249482</v>
+        <v>158.1553266408406</v>
       </c>
       <c r="H43" t="n">
-        <v>95.84378516563895</v>
+        <v>158.1553266408406</v>
       </c>
       <c r="I43" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J43" t="n">
-        <v>172.0715573122204</v>
+        <v>172.0715573122205</v>
       </c>
       <c r="K43" t="n">
-        <v>403.5678383014537</v>
+        <v>403.5678383014539</v>
       </c>
       <c r="L43" t="n">
-        <v>745.0678255577867</v>
+        <v>745.0678255577869</v>
       </c>
       <c r="M43" t="n">
         <v>1113.526067153838</v>
@@ -7591,28 +7591,28 @@
         <v>2171.804129327943</v>
       </c>
       <c r="R43" t="n">
-        <v>2115.786545845711</v>
+        <v>2115.786545845712</v>
       </c>
       <c r="S43" t="n">
-        <v>1960.134916650774</v>
+        <v>1960.134916650775</v>
       </c>
       <c r="T43" t="n">
         <v>1775.463744254807</v>
       </c>
       <c r="U43" t="n">
-        <v>1775.463744254807</v>
+        <v>1523.796604629269</v>
       </c>
       <c r="V43" t="n">
-        <v>1558.219383524647</v>
+        <v>1306.552243899109</v>
       </c>
       <c r="W43" t="n">
-        <v>1306.242340963413</v>
+        <v>1054.575201337875</v>
       </c>
       <c r="X43" t="n">
-        <v>1115.692917541123</v>
+        <v>864.0257779155852</v>
       </c>
       <c r="Y43" t="n">
-        <v>932.3404658733203</v>
+        <v>680.6733262477824</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J44" t="n">
-        <v>437.1684702571589</v>
+        <v>269.7628212368058</v>
       </c>
       <c r="K44" t="n">
-        <v>1069.470498160096</v>
+        <v>581.1608906942902</v>
       </c>
       <c r="L44" t="n">
-        <v>1683.557268127852</v>
+        <v>1417.864095820059</v>
       </c>
       <c r="M44" t="n">
-        <v>2186.138946593468</v>
+        <v>2365.464172443579</v>
       </c>
       <c r="N44" t="n">
-        <v>2701.466730428459</v>
+        <v>3313.765411446433</v>
       </c>
       <c r="O44" t="n">
-        <v>3551.733061930989</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P44" t="n">
         <v>4239.741321354045</v>
@@ -7725,25 +7725,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J45" t="n">
-        <v>305.4410496149625</v>
+        <v>180.6109246279578</v>
       </c>
       <c r="K45" t="n">
-        <v>528.4764171923169</v>
+        <v>403.6462922053122</v>
       </c>
       <c r="L45" t="n">
-        <v>874.6975343291354</v>
+        <v>749.8674093421307</v>
       </c>
       <c r="M45" t="n">
-        <v>1298.078116004968</v>
+        <v>1173.247991017963</v>
       </c>
       <c r="N45" t="n">
-        <v>1747.072966785267</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.595741786391</v>
+        <v>2010.765616799386</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.086455254413</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q45" t="n">
         <v>2590.532838984828</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8326986373157</v>
+        <v>622.2506801584778</v>
       </c>
       <c r="C46" t="n">
-        <v>449.336643185136</v>
+        <v>490.7546247062982</v>
       </c>
       <c r="D46" t="n">
-        <v>336.6601312485275</v>
+        <v>378.0781127696897</v>
       </c>
       <c r="E46" t="n">
-        <v>226.1871651418616</v>
+        <v>267.6051466630237</v>
       </c>
       <c r="F46" t="n">
-        <v>226.1871651418616</v>
+        <v>158.1553266408406</v>
       </c>
       <c r="G46" t="n">
-        <v>95.84378516563895</v>
+        <v>158.1553266408406</v>
       </c>
       <c r="H46" t="n">
-        <v>95.84378516563895</v>
+        <v>158.1553266408406</v>
       </c>
       <c r="I46" t="n">
         <v>95.84378516563895</v>
@@ -7807,7 +7807,7 @@
         <v>172.0715573122204</v>
       </c>
       <c r="K46" t="n">
-        <v>403.5678383014539</v>
+        <v>403.5678383014538</v>
       </c>
       <c r="L46" t="n">
         <v>745.0678255577868</v>
@@ -7828,28 +7828,28 @@
         <v>2171.804129327943</v>
       </c>
       <c r="R46" t="n">
-        <v>2160.154255589758</v>
+        <v>2115.786545845712</v>
       </c>
       <c r="S46" t="n">
-        <v>2004.502626394821</v>
+        <v>1960.134916650775</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.831453998853</v>
+        <v>1775.463744254807</v>
       </c>
       <c r="U46" t="n">
-        <v>1568.164314373315</v>
+        <v>1523.796604629269</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.919953643155</v>
+        <v>1306.552243899109</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.942911081922</v>
+        <v>1054.575201337876</v>
       </c>
       <c r="X46" t="n">
-        <v>908.3934876596315</v>
+        <v>864.0257779155854</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.0410359918283</v>
+        <v>680.6733262477825</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>11.49268903058285</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>192.7961285322554</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>103.6402686582837</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.01341829300139</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.057484836193652</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>192.7961285322554</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>220.8495507215729</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>143.1044536334105</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>17.01341829300125</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.057484836193652</v>
+        <v>6.057484836193709</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>124.0827763021683</v>
+        <v>288.9126749942367</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.01341829300122</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>17.01341829300222</v>
       </c>
       <c r="R18" t="n">
-        <v>6.057484836193652</v>
+        <v>6.057484836193709</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>192.796128532256</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>246.3445274638292</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>143.1044536334106</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>143.1044536334107</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>399.0078170750484</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>246.3445274638287</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>17.01341829300176</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>143.1044536334107</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>399.0078170750484</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>67.42800761058811</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.01341829300222</v>
+        <v>143.104453633411</v>
       </c>
       <c r="R27" t="n">
         <v>6.057484836193709</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>156.5465198137841</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>10.88126446134976</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>143.1044536334107</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.01341829300222</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>6.057484836193709</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>248.6912318635107</v>
       </c>
       <c r="M32" t="n">
-        <v>96.93362215328887</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>143.1044536334106</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>17.01341829300222</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>6.057484836193709</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>286.565970594555</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>362.1467837873428</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>143.1044536334106</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.01341829300222</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>6.057484836193709</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>155.9350952445512</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>202.577229825233</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>143.1044536334107</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>143.1044536334105</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>427.6091635773118</v>
       </c>
       <c r="N41" t="n">
-        <v>361.89274370433</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>143.1044536334106</v>
       </c>
       <c r="L42" t="n">
-        <v>143.1044536334107</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>192.796128532256</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>84.1153732544559</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>143.1044536334107</v>
       </c>
       <c r="Q45" t="n">
-        <v>17.01341829300222</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>6.057484836193709</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>129.6765399506033</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.1056723774303</v>
@@ -23434,7 +23434,7 @@
         <v>145.465079530659</v>
       </c>
       <c r="I13" t="n">
-        <v>98.75415226141956</v>
+        <v>98.75415226141958</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.1608391039575</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.169509933002598</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>145.465079530659</v>
       </c>
       <c r="I16" t="n">
-        <v>98.75415226141956</v>
+        <v>98.75415226141958</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.52313384837923</v>
+        <v>92.52313384837926</v>
       </c>
       <c r="S16" t="n">
-        <v>95.47835626656013</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>190.5744866596619</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.47835626656025</v>
+        <v>67.58416415577891</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1056723774303</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.465079530659</v>
       </c>
       <c r="I19" t="n">
-        <v>98.75415226141956</v>
+        <v>98.75415226141958</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.52313384837923</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1056723774303</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.465079530659</v>
+        <v>82.4357186905029</v>
       </c>
       <c r="I22" t="n">
         <v>98.75415226141958</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.52313384837926</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.47835626656044</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.47835626656067</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.52313384837926</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.8901868729779</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>58.26394196976477</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1056723774303</v>
+        <v>36.67446089839183</v>
       </c>
       <c r="H28" t="n">
         <v>145.465079530659</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>188.0014901149405</v>
+        <v>286.216194430253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>145.465079530659</v>
       </c>
       <c r="I31" t="n">
-        <v>98.75415226141958</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.52313384837926</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>95.47835626656058</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>176.2634424701664</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.92403264660491</v>
       </c>
       <c r="F34" t="n">
         <v>108.3553218219613</v>
       </c>
       <c r="G34" t="n">
-        <v>105.612458707055</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>108.399353329689</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.68842606044964</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>105.612458707055</v>
+        <v>130.1810948976579</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F37" t="n">
-        <v>108.3553218219613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>82.81780251544816</v>
       </c>
       <c r="H37" t="n">
-        <v>108.399353329689</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.7662539809674</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.4491505958633</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>109.3682364455992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>62.4550461698791</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.68842606044966</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.45740764740935</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>105.6124587070547</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>11.52823956897291</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I43" t="n">
-        <v>61.68842606044966</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>249.1504682292831</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>84.92783435255582</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>108.3553218219613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>129.0399461764603</v>
       </c>
       <c r="H46" t="n">
         <v>108.399353329689</v>
       </c>
       <c r="I46" t="n">
-        <v>61.68842606044966</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>43.92403264660557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614549.8365133904</v>
+        <v>614549.8365133905</v>
       </c>
     </row>
     <row r="11">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>792096.7210865846</v>
+        <v>792096.7210865845</v>
       </c>
       <c r="F2" t="n">
-        <v>792096.7210865844</v>
+        <v>792096.721086584</v>
       </c>
       <c r="G2" t="n">
         <v>792096.7210865841</v>
@@ -26335,25 +26335,25 @@
         <v>792096.7210865843</v>
       </c>
       <c r="J2" t="n">
+        <v>792096.7210865844</v>
+      </c>
+      <c r="K2" t="n">
         <v>792096.7210865843</v>
       </c>
-      <c r="K2" t="n">
-        <v>792096.7210865844</v>
-      </c>
       <c r="L2" t="n">
-        <v>813304.9586516736</v>
+        <v>813304.9586516737</v>
       </c>
       <c r="M2" t="n">
-        <v>813304.9586516744</v>
+        <v>813304.9586516741</v>
       </c>
       <c r="N2" t="n">
-        <v>813304.9586516741</v>
+        <v>813304.9586516733</v>
       </c>
       <c r="O2" t="n">
-        <v>813304.9586516742</v>
+        <v>813304.9586516743</v>
       </c>
       <c r="P2" t="n">
-        <v>813304.9586516736</v>
+        <v>813304.9586516737</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>692851.3631862565</v>
+        <v>692851.3631862563</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.67263393429504e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29652.58096077593</v>
+        <v>29652.58096077595</v>
       </c>
       <c r="M3" t="n">
-        <v>130523.0974606974</v>
+        <v>130523.0974606973</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>21268.78283567251</v>
+        <v>21268.78283567253</v>
       </c>
       <c r="F4" t="n">
-        <v>21268.78283567251</v>
+        <v>21268.78283567254</v>
       </c>
       <c r="G4" t="n">
-        <v>21268.78283567247</v>
+        <v>21268.78283567256</v>
       </c>
       <c r="H4" t="n">
-        <v>21268.78283567252</v>
+        <v>21268.78283567257</v>
       </c>
       <c r="I4" t="n">
         <v>21268.78283567253</v>
       </c>
       <c r="J4" t="n">
-        <v>21268.78283567257</v>
+        <v>21268.78283567253</v>
       </c>
       <c r="K4" t="n">
         <v>21268.78283567257</v>
@@ -26448,13 +26448,13 @@
         <v>33465.25394580061</v>
       </c>
       <c r="M4" t="n">
+        <v>33465.25394580066</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33465.25394580061</v>
+      </c>
+      <c r="O4" t="n">
         <v>33465.25394580065</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33465.25394580064</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33465.25394580064</v>
       </c>
       <c r="P4" t="n">
         <v>33465.25394580061</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079858</v>
+        <v>-35133.87427079884</v>
       </c>
       <c r="C6" t="n">
         <v>554834.0049437456</v>
@@ -26528,40 +26528,40 @@
         <v>554834.0049437456</v>
       </c>
       <c r="E6" t="n">
-        <v>-17656.34914642718</v>
+        <v>-17728.71176837131</v>
       </c>
       <c r="F6" t="n">
-        <v>675195.0140398291</v>
+        <v>675122.6514178845</v>
       </c>
       <c r="G6" t="n">
-        <v>675195.0140398289</v>
+        <v>675122.6514178845</v>
       </c>
       <c r="H6" t="n">
-        <v>675195.0140398291</v>
+        <v>675122.6514178847</v>
       </c>
       <c r="I6" t="n">
-        <v>675195.014039829</v>
+        <v>675122.6514178847</v>
       </c>
       <c r="J6" t="n">
-        <v>498771.794847236</v>
+        <v>498699.432225292</v>
       </c>
       <c r="K6" t="n">
-        <v>675195.014039829</v>
+        <v>675122.6514178846</v>
       </c>
       <c r="L6" t="n">
-        <v>651438.1209980249</v>
+        <v>651418.7789699936</v>
       </c>
       <c r="M6" t="n">
-        <v>550567.6044981042</v>
+        <v>550548.2624700725</v>
       </c>
       <c r="N6" t="n">
-        <v>681090.7019588014</v>
+        <v>681071.3599307691</v>
       </c>
       <c r="O6" t="n">
-        <v>681090.7019588015</v>
+        <v>681071.3599307701</v>
       </c>
       <c r="P6" t="n">
-        <v>681090.7019588009</v>
+        <v>681071.3599307695</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M2" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N2" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O2" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P2" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1045.488416752165</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1198.047314570487</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>667.7447525350781</v>
+        <v>667.7447525350779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>523.7600418159313</v>
+        <v>523.7600418159312</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7600418159313</v>
+        <v>523.7600418159312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.090792417868801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7600418159313</v>
+        <v>523.7600418159312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>158.0449589293573</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328957</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>216.4888088016612</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>204.7973835286708</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>137.0799120443118</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2530203393536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>91.46952547873053</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19.42954993933617</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.744915819785092e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="C46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="D46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="E46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="F46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="G46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="H46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="I46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="J46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="K46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="L46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="M46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="N46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="O46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="P46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="R46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="S46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="T46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="U46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="V46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="W46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="X46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.06572620096991</v>
+        <v>37.06572620096993</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.202968509556438</v>
+        <v>4.202968509556437</v>
       </c>
       <c r="H11" t="n">
         <v>43.04365124849488</v>
@@ -31759,40 +31759,40 @@
         <v>162.0349434646747</v>
       </c>
       <c r="J11" t="n">
-        <v>356.7216985379661</v>
+        <v>356.721698537966</v>
       </c>
       <c r="K11" t="n">
-        <v>534.6333555474902</v>
+        <v>534.6333555474901</v>
       </c>
       <c r="L11" t="n">
-        <v>663.2599530718281</v>
+        <v>663.259953071828</v>
       </c>
       <c r="M11" t="n">
-        <v>738.0044943036525</v>
+        <v>738.0044943036523</v>
       </c>
       <c r="N11" t="n">
-        <v>749.9461785814298</v>
+        <v>749.9461785814295</v>
       </c>
       <c r="O11" t="n">
-        <v>708.1529104645278</v>
+        <v>708.1529104645277</v>
       </c>
       <c r="P11" t="n">
-        <v>604.3921253848532</v>
+        <v>604.3921253848531</v>
       </c>
       <c r="Q11" t="n">
-        <v>453.8733156363631</v>
+        <v>453.873315636363</v>
       </c>
       <c r="R11" t="n">
         <v>264.0147206384248</v>
       </c>
       <c r="S11" t="n">
-        <v>95.77514491151743</v>
+        <v>95.7751449115174</v>
       </c>
       <c r="T11" t="n">
-        <v>18.39849465058332</v>
+        <v>18.39849465058331</v>
       </c>
       <c r="U11" t="n">
-        <v>0.336237480764515</v>
+        <v>0.3362374807645149</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>21.71854239328554</v>
       </c>
       <c r="I12" t="n">
-        <v>77.42532142928769</v>
+        <v>77.42532142928766</v>
       </c>
       <c r="J12" t="n">
-        <v>212.4609998609282</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K12" t="n">
         <v>363.1296890524948</v>
       </c>
       <c r="L12" t="n">
-        <v>488.2726799180747</v>
+        <v>488.2726799180746</v>
       </c>
       <c r="M12" t="n">
-        <v>569.7911871299298</v>
+        <v>569.7911871299297</v>
       </c>
       <c r="N12" t="n">
-        <v>584.8718643866663</v>
+        <v>584.8718643866662</v>
       </c>
       <c r="O12" t="n">
-        <v>535.0434919203271</v>
+        <v>535.043491920327</v>
       </c>
       <c r="P12" t="n">
-        <v>429.4195725335449</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.055612086368</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R12" t="n">
-        <v>139.6220191277703</v>
+        <v>139.6220191277702</v>
       </c>
       <c r="S12" t="n">
-        <v>41.77022117873033</v>
+        <v>41.77022117873032</v>
       </c>
       <c r="T12" t="n">
-        <v>9.064187311275841</v>
+        <v>9.064187311275839</v>
       </c>
       <c r="U12" t="n">
         <v>0.1479464740687026</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.885306981028494</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H13" t="n">
-        <v>16.76209297678062</v>
+        <v>16.76209297678061</v>
       </c>
       <c r="I13" t="n">
         <v>56.69632266583871</v>
@@ -31923,13 +31923,13 @@
         <v>219.0383928867649</v>
       </c>
       <c r="L13" t="n">
-        <v>280.2937306158181</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M13" t="n">
         <v>295.5304388534028</v>
       </c>
       <c r="N13" t="n">
-        <v>288.5033855604787</v>
+        <v>288.5033855604786</v>
       </c>
       <c r="O13" t="n">
         <v>266.4795721911912</v>
@@ -31938,19 +31938,19 @@
         <v>228.0193097782097</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.8687509295769</v>
+        <v>157.8687509295768</v>
       </c>
       <c r="R13" t="n">
-        <v>84.77025752879025</v>
+        <v>84.77025752879022</v>
       </c>
       <c r="S13" t="n">
         <v>32.85575893301473</v>
       </c>
       <c r="T13" t="n">
-        <v>8.055402555303562</v>
+        <v>8.05540255530356</v>
       </c>
       <c r="U13" t="n">
-        <v>0.102834926237918</v>
+        <v>0.1028349262379179</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.202968509556438</v>
+        <v>4.202968509556437</v>
       </c>
       <c r="H14" t="n">
         <v>43.04365124849488</v>
@@ -31996,40 +31996,40 @@
         <v>162.0349434646747</v>
       </c>
       <c r="J14" t="n">
-        <v>356.7216985379661</v>
+        <v>356.721698537966</v>
       </c>
       <c r="K14" t="n">
-        <v>534.6333555474902</v>
+        <v>534.6333555474901</v>
       </c>
       <c r="L14" t="n">
-        <v>663.2599530718281</v>
+        <v>663.259953071828</v>
       </c>
       <c r="M14" t="n">
-        <v>738.0044943036525</v>
+        <v>738.0044943036523</v>
       </c>
       <c r="N14" t="n">
-        <v>749.9461785814298</v>
+        <v>749.9461785814295</v>
       </c>
       <c r="O14" t="n">
-        <v>708.1529104645278</v>
+        <v>708.1529104645277</v>
       </c>
       <c r="P14" t="n">
-        <v>604.3921253848532</v>
+        <v>604.3921253848531</v>
       </c>
       <c r="Q14" t="n">
-        <v>453.8733156363631</v>
+        <v>453.873315636363</v>
       </c>
       <c r="R14" t="n">
         <v>264.0147206384248</v>
       </c>
       <c r="S14" t="n">
-        <v>95.77514491151743</v>
+        <v>95.7751449115174</v>
       </c>
       <c r="T14" t="n">
-        <v>18.39849465058332</v>
+        <v>18.39849465058331</v>
       </c>
       <c r="U14" t="n">
-        <v>0.336237480764515</v>
+        <v>0.3362374807645149</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>21.71854239328554</v>
       </c>
       <c r="I15" t="n">
-        <v>77.42532142928769</v>
+        <v>77.42532142928766</v>
       </c>
       <c r="J15" t="n">
-        <v>212.4609998609282</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K15" t="n">
         <v>363.1296890524948</v>
       </c>
       <c r="L15" t="n">
-        <v>488.2726799180747</v>
+        <v>488.2726799180746</v>
       </c>
       <c r="M15" t="n">
-        <v>569.7911871299298</v>
+        <v>569.7911871299297</v>
       </c>
       <c r="N15" t="n">
-        <v>584.8718643866663</v>
+        <v>584.8718643866662</v>
       </c>
       <c r="O15" t="n">
-        <v>535.0434919203271</v>
+        <v>535.043491920327</v>
       </c>
       <c r="P15" t="n">
-        <v>429.4195725335449</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q15" t="n">
-        <v>287.055612086368</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R15" t="n">
-        <v>139.6220191277703</v>
+        <v>139.6220191277702</v>
       </c>
       <c r="S15" t="n">
-        <v>41.77022117873033</v>
+        <v>41.77022117873032</v>
       </c>
       <c r="T15" t="n">
-        <v>9.064187311275841</v>
+        <v>9.064187311275839</v>
       </c>
       <c r="U15" t="n">
         <v>0.1479464740687026</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.885306981028494</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H16" t="n">
-        <v>16.76209297678062</v>
+        <v>16.76209297678061</v>
       </c>
       <c r="I16" t="n">
         <v>56.69632266583871</v>
@@ -32160,13 +32160,13 @@
         <v>219.0383928867649</v>
       </c>
       <c r="L16" t="n">
-        <v>280.2937306158181</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M16" t="n">
         <v>295.5304388534028</v>
       </c>
       <c r="N16" t="n">
-        <v>288.5033855604787</v>
+        <v>288.5033855604786</v>
       </c>
       <c r="O16" t="n">
         <v>266.4795721911912</v>
@@ -32175,19 +32175,19 @@
         <v>228.0193097782097</v>
       </c>
       <c r="Q16" t="n">
-        <v>157.8687509295769</v>
+        <v>157.8687509295768</v>
       </c>
       <c r="R16" t="n">
-        <v>84.77025752879025</v>
+        <v>84.77025752879022</v>
       </c>
       <c r="S16" t="n">
         <v>32.85575893301473</v>
       </c>
       <c r="T16" t="n">
-        <v>8.055402555303562</v>
+        <v>8.05540255530356</v>
       </c>
       <c r="U16" t="n">
-        <v>0.102834926237918</v>
+        <v>0.1028349262379179</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.202968509556438</v>
+        <v>4.202968509556437</v>
       </c>
       <c r="H17" t="n">
         <v>43.04365124849488</v>
@@ -32233,40 +32233,40 @@
         <v>162.0349434646747</v>
       </c>
       <c r="J17" t="n">
-        <v>356.7216985379661</v>
+        <v>356.721698537966</v>
       </c>
       <c r="K17" t="n">
-        <v>534.6333555474902</v>
+        <v>534.6333555474901</v>
       </c>
       <c r="L17" t="n">
-        <v>663.2599530718281</v>
+        <v>663.259953071828</v>
       </c>
       <c r="M17" t="n">
-        <v>738.0044943036525</v>
+        <v>738.0044943036523</v>
       </c>
       <c r="N17" t="n">
-        <v>749.9461785814298</v>
+        <v>749.9461785814295</v>
       </c>
       <c r="O17" t="n">
-        <v>708.1529104645278</v>
+        <v>708.1529104645277</v>
       </c>
       <c r="P17" t="n">
-        <v>604.3921253848532</v>
+        <v>604.3921253848531</v>
       </c>
       <c r="Q17" t="n">
-        <v>453.8733156363631</v>
+        <v>453.873315636363</v>
       </c>
       <c r="R17" t="n">
         <v>264.0147206384248</v>
       </c>
       <c r="S17" t="n">
-        <v>95.77514491151743</v>
+        <v>95.7751449115174</v>
       </c>
       <c r="T17" t="n">
-        <v>18.39849465058332</v>
+        <v>18.39849465058331</v>
       </c>
       <c r="U17" t="n">
-        <v>0.336237480764515</v>
+        <v>0.3362374807645149</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>21.71854239328554</v>
       </c>
       <c r="I18" t="n">
-        <v>77.42532142928769</v>
+        <v>77.42532142928766</v>
       </c>
       <c r="J18" t="n">
-        <v>212.4609998609282</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K18" t="n">
         <v>363.1296890524948</v>
       </c>
       <c r="L18" t="n">
-        <v>488.2726799180747</v>
+        <v>488.2726799180746</v>
       </c>
       <c r="M18" t="n">
-        <v>569.7911871299298</v>
+        <v>569.7911871299297</v>
       </c>
       <c r="N18" t="n">
-        <v>584.8718643866663</v>
+        <v>584.8718643866662</v>
       </c>
       <c r="O18" t="n">
-        <v>535.0434919203271</v>
+        <v>535.043491920327</v>
       </c>
       <c r="P18" t="n">
-        <v>429.4195725335449</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q18" t="n">
-        <v>287.055612086368</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R18" t="n">
-        <v>139.6220191277703</v>
+        <v>139.6220191277702</v>
       </c>
       <c r="S18" t="n">
-        <v>41.77022117873033</v>
+        <v>41.77022117873032</v>
       </c>
       <c r="T18" t="n">
-        <v>9.064187311275841</v>
+        <v>9.064187311275839</v>
       </c>
       <c r="U18" t="n">
         <v>0.1479464740687026</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.885306981028494</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H19" t="n">
-        <v>16.76209297678062</v>
+        <v>16.76209297678061</v>
       </c>
       <c r="I19" t="n">
         <v>56.69632266583871</v>
@@ -32397,13 +32397,13 @@
         <v>219.0383928867649</v>
       </c>
       <c r="L19" t="n">
-        <v>280.2937306158181</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M19" t="n">
         <v>295.5304388534028</v>
       </c>
       <c r="N19" t="n">
-        <v>288.5033855604787</v>
+        <v>288.5033855604786</v>
       </c>
       <c r="O19" t="n">
         <v>266.4795721911912</v>
@@ -32412,19 +32412,19 @@
         <v>228.0193097782097</v>
       </c>
       <c r="Q19" t="n">
-        <v>157.8687509295769</v>
+        <v>157.8687509295768</v>
       </c>
       <c r="R19" t="n">
-        <v>84.77025752879025</v>
+        <v>84.77025752879022</v>
       </c>
       <c r="S19" t="n">
         <v>32.85575893301473</v>
       </c>
       <c r="T19" t="n">
-        <v>8.055402555303562</v>
+        <v>8.05540255530356</v>
       </c>
       <c r="U19" t="n">
-        <v>0.102834926237918</v>
+        <v>0.1028349262379179</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>344.7724091833535</v>
+        <v>187.1684830418626</v>
       </c>
       <c r="K11" t="n">
-        <v>638.6889170736744</v>
+        <v>314.5435045025095</v>
       </c>
       <c r="L11" t="n">
-        <v>427.4935381018409</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M11" t="n">
-        <v>507.6582610763797</v>
+        <v>957.1717945692121</v>
       </c>
       <c r="N11" t="n">
-        <v>713.3292435170943</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O11" t="n">
-        <v>858.8548803055864</v>
+        <v>858.8548803055863</v>
       </c>
       <c r="P11" t="n">
         <v>694.9578378010663</v>
       </c>
       <c r="Q11" t="n">
-        <v>443.8826164218183</v>
+        <v>231.5676257619135</v>
       </c>
       <c r="R11" t="n">
         <v>114.1456026972751</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K12" t="n">
         <v>225.2882500781358</v>
       </c>
       <c r="L12" t="n">
-        <v>349.7183001382006</v>
+        <v>453.3585687964841</v>
       </c>
       <c r="M12" t="n">
-        <v>427.6571532079114</v>
+        <v>427.6571532079113</v>
       </c>
       <c r="N12" t="n">
-        <v>453.530152303333</v>
+        <v>453.5301523033329</v>
       </c>
       <c r="O12" t="n">
-        <v>409.4606657688841</v>
+        <v>392.4472474758826</v>
       </c>
       <c r="P12" t="n">
-        <v>295.4451651192146</v>
+        <v>295.4451651192145</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.0738380003465</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.46418497512711</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.93202344204173</v>
+        <v>39.9320234420417</v>
       </c>
       <c r="K13" t="n">
-        <v>196.7689010608821</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8837558761343</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M13" t="n">
-        <v>335.1143158152434</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N13" t="n">
         <v>332.6355579397073</v>
       </c>
       <c r="O13" t="n">
-        <v>291.0647001052309</v>
+        <v>291.0647001052308</v>
       </c>
       <c r="P13" t="n">
         <v>225.2978690431032</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.70670767788248</v>
+        <v>71.70670767788245</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>344.7724091833535</v>
       </c>
       <c r="K14" t="n">
-        <v>638.6889170736744</v>
+        <v>638.6889170736742</v>
       </c>
       <c r="L14" t="n">
-        <v>427.4935381018409</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M14" t="n">
-        <v>507.6582610763797</v>
+        <v>957.1717945692121</v>
       </c>
       <c r="N14" t="n">
-        <v>713.3292435170943</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O14" t="n">
-        <v>858.8548803055864</v>
+        <v>478.054699042841</v>
       </c>
       <c r="P14" t="n">
-        <v>694.9578378010663</v>
+        <v>594.0086803511565</v>
       </c>
       <c r="Q14" t="n">
-        <v>443.8826164218183</v>
+        <v>231.5676257619135</v>
       </c>
       <c r="R14" t="n">
         <v>114.1456026972751</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K15" t="n">
         <v>225.2882500781358</v>
       </c>
       <c r="L15" t="n">
-        <v>349.7183001382006</v>
+        <v>349.7183001382004</v>
       </c>
       <c r="M15" t="n">
-        <v>427.6571532079114</v>
+        <v>427.6571532079113</v>
       </c>
       <c r="N15" t="n">
-        <v>453.530152303333</v>
+        <v>596.6346059367434</v>
       </c>
       <c r="O15" t="n">
-        <v>392.4472474758827</v>
+        <v>392.4472474758826</v>
       </c>
       <c r="P15" t="n">
-        <v>295.4451651192146</v>
+        <v>295.4451651192145</v>
       </c>
       <c r="Q15" t="n">
-        <v>164.0872562933477</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.93202344204173</v>
+        <v>39.9320234420417</v>
       </c>
       <c r="K16" t="n">
-        <v>196.7689010608821</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8837558761343</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M16" t="n">
-        <v>335.1143158152434</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N16" t="n">
         <v>332.6355579397073</v>
       </c>
       <c r="O16" t="n">
-        <v>291.0647001052309</v>
+        <v>291.0647001052308</v>
       </c>
       <c r="P16" t="n">
         <v>225.2978690431032</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.70670767788248</v>
+        <v>71.70670767788245</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>344.7724091833535</v>
       </c>
       <c r="K17" t="n">
-        <v>638.6889170736744</v>
+        <v>314.5435045025095</v>
       </c>
       <c r="L17" t="n">
-        <v>551.5763144040092</v>
+        <v>716.4062130960775</v>
       </c>
       <c r="M17" t="n">
-        <v>957.1717945692122</v>
+        <v>957.1717945692121</v>
       </c>
       <c r="N17" t="n">
-        <v>520.5331149848389</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O17" t="n">
-        <v>478.0546990428411</v>
+        <v>478.054699042841</v>
       </c>
       <c r="P17" t="n">
         <v>694.9578378010663</v>
       </c>
       <c r="Q17" t="n">
-        <v>443.8826164218183</v>
+        <v>231.5676257619135</v>
       </c>
       <c r="R17" t="n">
-        <v>114.1456026972751</v>
+        <v>48.42918282429264</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>225.2882500781358</v>
       </c>
       <c r="L18" t="n">
-        <v>349.7183001382006</v>
+        <v>349.7183001382004</v>
       </c>
       <c r="M18" t="n">
-        <v>427.6571532079114</v>
+        <v>427.6571532079113</v>
       </c>
       <c r="N18" t="n">
-        <v>453.530152303333</v>
+        <v>453.5301523033329</v>
       </c>
       <c r="O18" t="n">
-        <v>392.4472474758827</v>
+        <v>392.4472474758826</v>
       </c>
       <c r="P18" t="n">
-        <v>312.4585834122158</v>
+        <v>295.4451651192145</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.0738380003465</v>
+        <v>164.0872562933486</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.93202344204173</v>
+        <v>39.9320234420417</v>
       </c>
       <c r="K19" t="n">
-        <v>196.7689010608821</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8837558761343</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M19" t="n">
-        <v>335.1143158152434</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N19" t="n">
         <v>332.6355579397073</v>
       </c>
       <c r="O19" t="n">
-        <v>291.0647001052309</v>
+        <v>291.0647001052308</v>
       </c>
       <c r="P19" t="n">
         <v>225.2978690431032</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.70670767788248</v>
+        <v>71.70670767788245</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>344.7724091833535</v>
+        <v>175.6757940112797</v>
       </c>
       <c r="K20" t="n">
         <v>638.6889170736742</v>
       </c>
       <c r="L20" t="n">
-        <v>620.2896666340968</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M20" t="n">
-        <v>507.6582610763796</v>
+        <v>754.0027885402088</v>
       </c>
       <c r="N20" t="n">
-        <v>520.5331149848387</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O20" t="n">
         <v>858.8548803055863</v>
       </c>
       <c r="P20" t="n">
-        <v>694.9578378010663</v>
+        <v>373.1591296295836</v>
       </c>
       <c r="Q20" t="n">
         <v>443.8826164218182</v>
@@ -36200,10 +36200,10 @@
         <v>85.62337319426143</v>
       </c>
       <c r="K21" t="n">
-        <v>368.3927037115464</v>
+        <v>225.2882500781358</v>
       </c>
       <c r="L21" t="n">
-        <v>349.7183001382004</v>
+        <v>492.8227537716111</v>
       </c>
       <c r="M21" t="n">
         <v>427.6571532079113</v>
@@ -36358,13 +36358,13 @@
         <v>175.6757940112797</v>
       </c>
       <c r="K23" t="n">
-        <v>314.5435045025095</v>
+        <v>638.6889170736742</v>
       </c>
       <c r="L23" t="n">
-        <v>826.5013551768892</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M23" t="n">
-        <v>957.1717945692121</v>
+        <v>507.6582610763796</v>
       </c>
       <c r="N23" t="n">
         <v>957.8800393968228</v>
@@ -36373,13 +36373,13 @@
         <v>858.8548803055863</v>
       </c>
       <c r="P23" t="n">
-        <v>373.1591296295836</v>
+        <v>619.5036570934122</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.5676257619135</v>
+        <v>443.8826164218182</v>
       </c>
       <c r="R23" t="n">
-        <v>48.42918282429264</v>
+        <v>114.1456026972751</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K24" t="n">
-        <v>242.3016683711375</v>
+        <v>225.2882500781358</v>
       </c>
       <c r="L24" t="n">
         <v>349.7183001382004</v>
@@ -36452,7 +36452,7 @@
         <v>392.4472474758826</v>
       </c>
       <c r="P24" t="n">
-        <v>295.4451651192145</v>
+        <v>438.5496187526252</v>
       </c>
       <c r="Q24" t="n">
         <v>147.0738380003464</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.6757940112797</v>
+        <v>344.7724091833535</v>
       </c>
       <c r="K26" t="n">
         <v>314.5435045025095</v>
       </c>
       <c r="L26" t="n">
-        <v>826.5013551768892</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M26" t="n">
         <v>957.1717945692121</v>
       </c>
       <c r="N26" t="n">
-        <v>957.8800393968228</v>
+        <v>587.9611225954268</v>
       </c>
       <c r="O26" t="n">
         <v>858.8548803055863</v>
       </c>
       <c r="P26" t="n">
-        <v>373.1591296295836</v>
+        <v>694.9578378010663</v>
       </c>
       <c r="Q26" t="n">
-        <v>231.5676257619135</v>
+        <v>443.8826164218182</v>
       </c>
       <c r="R26" t="n">
-        <v>48.42918282429264</v>
+        <v>114.1456026972751</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K27" t="n">
         <v>225.2882500781358</v>
@@ -36692,7 +36692,7 @@
         <v>295.4451651192145</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.0872562933486</v>
+        <v>290.1782916337574</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>332.2223138250638</v>
+        <v>344.7724091833535</v>
       </c>
       <c r="K29" t="n">
-        <v>638.6889170736742</v>
+        <v>314.5435045025095</v>
       </c>
       <c r="L29" t="n">
-        <v>845.1547526522912</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M29" t="n">
-        <v>507.6582610763796</v>
+        <v>957.1717945692121</v>
       </c>
       <c r="N29" t="n">
-        <v>520.5331149848387</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O29" t="n">
-        <v>858.8548803055863</v>
+        <v>488.9359635041907</v>
       </c>
       <c r="P29" t="n">
         <v>694.9578378010663</v>
       </c>
       <c r="Q29" t="n">
-        <v>231.5676257619135</v>
+        <v>443.8826164218182</v>
       </c>
       <c r="R29" t="n">
         <v>114.1456026972751</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K30" t="n">
         <v>225.2882500781358</v>
@@ -36923,13 +36923,13 @@
         <v>453.5301523033329</v>
       </c>
       <c r="O30" t="n">
-        <v>392.4472474758826</v>
+        <v>535.5517011092933</v>
       </c>
       <c r="P30" t="n">
         <v>295.4451651192145</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.0872562933486</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>344.7724091833535</v>
+        <v>175.6757940112797</v>
       </c>
       <c r="K32" t="n">
-        <v>638.6889170736742</v>
+        <v>314.5435045025095</v>
       </c>
       <c r="L32" t="n">
-        <v>845.1547526522912</v>
+        <v>676.1847699653515</v>
       </c>
       <c r="M32" t="n">
-        <v>604.5918832296685</v>
+        <v>507.6582610763796</v>
       </c>
       <c r="N32" t="n">
-        <v>520.5331149848387</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O32" t="n">
         <v>858.8548803055863</v>
       </c>
       <c r="P32" t="n">
-        <v>373.1591296295836</v>
+        <v>694.9578378010663</v>
       </c>
       <c r="Q32" t="n">
         <v>443.8826164218182</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K33" t="n">
-        <v>225.2882500781358</v>
+        <v>368.3927037115464</v>
       </c>
       <c r="L33" t="n">
         <v>349.7183001382004</v>
@@ -37166,7 +37166,7 @@
         <v>295.4451651192145</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.0872562933486</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301163</v>
       </c>
       <c r="K34" t="n">
         <v>233.8346272618519</v>
@@ -37233,13 +37233,13 @@
         <v>344.9494820771041</v>
       </c>
       <c r="M34" t="n">
-        <v>372.1800420162132</v>
+        <v>372.1800420162133</v>
       </c>
       <c r="N34" t="n">
         <v>369.7012841406772</v>
       </c>
       <c r="O34" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062008</v>
       </c>
       <c r="P34" t="n">
         <v>262.3635952440731</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.6757940112797</v>
+        <v>344.7724091833535</v>
       </c>
       <c r="K35" t="n">
-        <v>314.5435045025095</v>
+        <v>638.6889170736742</v>
       </c>
       <c r="L35" t="n">
-        <v>845.1547526522912</v>
+        <v>714.0595086963958</v>
       </c>
       <c r="M35" t="n">
         <v>957.1717945692121</v>
@@ -37318,7 +37318,7 @@
         <v>957.8800393968228</v>
       </c>
       <c r="O35" t="n">
-        <v>840.2014828301837</v>
+        <v>478.054699042841</v>
       </c>
       <c r="P35" t="n">
         <v>373.1591296295836</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K36" t="n">
         <v>225.2882500781358</v>
@@ -37391,7 +37391,7 @@
         <v>349.7183001382004</v>
       </c>
       <c r="M36" t="n">
-        <v>427.6571532079113</v>
+        <v>570.761606841322</v>
       </c>
       <c r="N36" t="n">
         <v>453.5301523033329</v>
@@ -37403,7 +37403,7 @@
         <v>295.4451651192145</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.0872562933486</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301163</v>
       </c>
       <c r="K37" t="n">
         <v>233.8346272618519</v>
@@ -37470,13 +37470,13 @@
         <v>344.9494820771041</v>
       </c>
       <c r="M37" t="n">
-        <v>372.1800420162132</v>
+        <v>372.1800420162133</v>
       </c>
       <c r="N37" t="n">
         <v>369.7012841406772</v>
       </c>
       <c r="O37" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062008</v>
       </c>
       <c r="P37" t="n">
         <v>262.3635952440731</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>344.7724091833535</v>
+        <v>175.6757940112797</v>
       </c>
       <c r="K38" t="n">
         <v>638.6889170736742</v>
       </c>
       <c r="L38" t="n">
-        <v>845.1547526522912</v>
+        <v>427.4935381018408</v>
       </c>
       <c r="M38" t="n">
         <v>507.6582610763796</v>
       </c>
       <c r="N38" t="n">
-        <v>520.5331149848387</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O38" t="n">
-        <v>633.9897942873922</v>
+        <v>858.8548803055863</v>
       </c>
       <c r="P38" t="n">
         <v>694.9578378010663</v>
       </c>
       <c r="Q38" t="n">
-        <v>443.8826164218182</v>
+        <v>434.1448555871466</v>
       </c>
       <c r="R38" t="n">
-        <v>114.1456026972751</v>
+        <v>48.42918282429264</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>225.2882500781358</v>
       </c>
       <c r="L39" t="n">
-        <v>492.8227537716111</v>
+        <v>349.7183001382004</v>
       </c>
       <c r="M39" t="n">
         <v>427.6571532079113</v>
       </c>
       <c r="N39" t="n">
-        <v>453.5301523033329</v>
+        <v>596.6346059367434</v>
       </c>
       <c r="O39" t="n">
         <v>392.4472474758826</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301163</v>
       </c>
       <c r="K40" t="n">
         <v>233.8346272618519</v>
@@ -37707,13 +37707,13 @@
         <v>344.9494820771041</v>
       </c>
       <c r="M40" t="n">
-        <v>372.1800420162132</v>
+        <v>372.1800420162133</v>
       </c>
       <c r="N40" t="n">
         <v>369.7012841406772</v>
       </c>
       <c r="O40" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062008</v>
       </c>
       <c r="P40" t="n">
         <v>262.3635952440731</v>
@@ -37786,10 +37786,10 @@
         <v>427.4935381018408</v>
       </c>
       <c r="M41" t="n">
-        <v>507.6582610763796</v>
+        <v>935.2674246536915</v>
       </c>
       <c r="N41" t="n">
-        <v>882.4258586891686</v>
+        <v>520.5331149848387</v>
       </c>
       <c r="O41" t="n">
         <v>858.8548803055863</v>
@@ -37801,7 +37801,7 @@
         <v>443.8826164218182</v>
       </c>
       <c r="R41" t="n">
-        <v>114.1456026972751</v>
+        <v>48.42918282429264</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>85.62337319426143</v>
       </c>
       <c r="K42" t="n">
-        <v>225.2882500781358</v>
+        <v>368.3927037115464</v>
       </c>
       <c r="L42" t="n">
-        <v>492.8227537716111</v>
+        <v>349.7183001382004</v>
       </c>
       <c r="M42" t="n">
         <v>427.6571532079113</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301163</v>
       </c>
       <c r="K43" t="n">
         <v>233.8346272618519</v>
@@ -37944,13 +37944,13 @@
         <v>344.9494820771041</v>
       </c>
       <c r="M43" t="n">
-        <v>372.1800420162132</v>
+        <v>372.1800420162133</v>
       </c>
       <c r="N43" t="n">
         <v>369.7012841406772</v>
       </c>
       <c r="O43" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062008</v>
       </c>
       <c r="P43" t="n">
         <v>262.3635952440731</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>344.7724091833535</v>
+        <v>175.6757940112797</v>
       </c>
       <c r="K44" t="n">
-        <v>638.6889170736742</v>
+        <v>314.5435045025095</v>
       </c>
       <c r="L44" t="n">
-        <v>620.2896666340968</v>
+        <v>845.1547526522912</v>
       </c>
       <c r="M44" t="n">
-        <v>507.6582610763796</v>
+        <v>957.1717945692121</v>
       </c>
       <c r="N44" t="n">
-        <v>520.5331149848387</v>
+        <v>957.8800393968228</v>
       </c>
       <c r="O44" t="n">
-        <v>858.8548803055863</v>
+        <v>562.1700722972969</v>
       </c>
       <c r="P44" t="n">
-        <v>694.9578378010663</v>
+        <v>373.1591296295836</v>
       </c>
       <c r="Q44" t="n">
         <v>443.8826164218182</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>211.7144085346703</v>
+        <v>85.62337319426143</v>
       </c>
       <c r="K45" t="n">
         <v>225.2882500781358</v>
@@ -38111,10 +38111,10 @@
         <v>392.4472474758826</v>
       </c>
       <c r="P45" t="n">
-        <v>295.4451651192145</v>
+        <v>438.5496187526252</v>
       </c>
       <c r="Q45" t="n">
-        <v>164.0872562933486</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>76.99774964301162</v>
+        <v>76.99774964301163</v>
       </c>
       <c r="K46" t="n">
         <v>233.8346272618519</v>
@@ -38181,13 +38181,13 @@
         <v>344.9494820771041</v>
       </c>
       <c r="M46" t="n">
-        <v>372.1800420162132</v>
+        <v>372.1800420162133</v>
       </c>
       <c r="N46" t="n">
         <v>369.7012841406772</v>
       </c>
       <c r="O46" t="n">
-        <v>328.1304263062007</v>
+        <v>328.1304263062008</v>
       </c>
       <c r="P46" t="n">
         <v>262.3635952440731</v>
